--- a/data/trans_orig/Q17F_D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R-Edad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>5.894503498255784</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.832554962651026</v>
+        <v>3.832554962651028</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>3.404611907858195</v>
@@ -693,7 +693,7 @@
         <v>16.45744938858749</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>12.24930628154898</v>
+        <v>12.24930628154899</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.05122560133489</v>
+        <v>3.138143411962327</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.221065325430986</v>
+        <v>2.14393957973572</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.098960989757847</v>
+        <v>2.775518551909043</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.450170945456361</v>
+        <v>1.358360450876863</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.797455709961214</v>
+        <v>1.842694108164072</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.741994858065294</v>
+        <v>3.732531751439748</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>10.2755357164165</v>
+        <v>9.78639805906476</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.86827119118613</v>
+        <v>7.842054283681769</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.708539817473466</v>
+        <v>2.674193214782843</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.781037798613028</v>
+        <v>3.764491774326388</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8.737072422869753</v>
+        <v>8.449357509767971</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>6.512374132194698</v>
+        <v>6.534215634184648</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.506629605669771</v>
+        <v>9.886316500593392</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.773495381439872</v>
+        <v>10.37686619747415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.15917831416967</v>
+        <v>13.34801374800899</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.894912744252232</v>
+        <v>8.214561831611896</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.247427222712703</v>
+        <v>8.755013445869745</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.856437042615617</v>
+        <v>9.961941632718997</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>85.56656844996694</v>
+        <v>70.85907910995309</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>31.84122369026212</v>
+        <v>32.80582073380788</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.061201465995386</v>
+        <v>6.965841394316826</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8.457687881736103</v>
+        <v>8.416838349901571</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43.14291283341921</v>
+        <v>43.23949090658783</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>22.8459373347355</v>
+        <v>22.68591849340876</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.077152363912279</v>
+        <v>3.751309538788535</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.449139856912891</v>
+        <v>3.408616643292086</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.563365169723689</v>
+        <v>3.574668956591603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6.20182435523787</v>
+        <v>6.208480079493878</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>4.593878596975276</v>
+        <v>4.648234799212137</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>5.75072565258005</v>
+        <v>5.6431776207942</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>6.40652636875303</v>
+        <v>6.59495075237147</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>7.566178136137368</v>
+        <v>7.372447297241341</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>5.049346729071907</v>
+        <v>4.954310274362863</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.467492288117123</v>
+        <v>5.438378121085963</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>6.251491214165814</v>
+        <v>5.95322936028542</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>8.622453312439559</v>
+        <v>8.394652484510809</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.08472833314447</v>
+        <v>12.67297080843436</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.986417100424381</v>
+        <v>9.998109716827239</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.73455027825539</v>
+        <v>17.77237685530528</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>34.58532334337478</v>
+        <v>34.5566528146503</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>11.03679904139182</v>
+        <v>10.93274102674942</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.48787353634739</v>
+        <v>16.17192682985031</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>19.28464558966283</v>
+        <v>19.81861907884846</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>22.76850663289157</v>
+        <v>21.63501580298168</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>9.935474947521582</v>
+        <v>9.807868129412091</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12.46942261873416</v>
+        <v>12.53886525837004</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15.53254087730172</v>
+        <v>15.07700705009614</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>24.1972944698745</v>
+        <v>22.59907665590034</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>16.45666115997277</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>27.24089449869802</v>
+        <v>27.24089449869801</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>13.71187231012844</v>
@@ -965,7 +965,7 @@
         <v>12.6483414007892</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>21.19290263409237</v>
+        <v>21.19290263409236</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.157669191356949</v>
+        <v>5.34444267425827</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.415073248964341</v>
+        <v>4.607471403760238</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.360515891632848</v>
+        <v>5.399378373861057</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.200775176773202</v>
+        <v>8.028906531072888</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>9.695321433073413</v>
+        <v>9.672263215369824</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.76719626013722</v>
+        <v>6.637554833669449</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>9.395396954208966</v>
+        <v>9.466730401052256</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>17.80414172635543</v>
+        <v>17.00752164963458</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>9.331981672647222</v>
+        <v>9.458018272768468</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6.563521011864774</v>
+        <v>6.364003177546753</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8.670830645356045</v>
+        <v>8.443573401100842</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>15.30396512294173</v>
+        <v>15.40520105270976</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.62929806460064</v>
+        <v>16.61819028552693</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.23027691134164</v>
+        <v>11.16578886801686</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.14975919897498</v>
+        <v>13.19529545154966</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23.56697176772288</v>
+        <v>21.9811970865786</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>27.39155529420474</v>
+        <v>26.8897804712706</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>19.51719591294107</v>
+        <v>19.46465867039003</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>42.04605011854373</v>
+        <v>34.69114287325546</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>44.28524984208821</v>
+        <v>44.14426217454264</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>21.95018324015169</v>
+        <v>20.92007258145284</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13.94125012807667</v>
+        <v>13.63425951043272</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22.74212381539453</v>
+        <v>24.43876171971544</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>32.68175725542994</v>
+        <v>32.90173692826589</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.92346817071067</v>
+        <v>5.158173185968122</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.918234526741145</v>
+        <v>7.967215967172162</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.529033783302409</v>
+        <v>4.396283724184253</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21.48922691501713</v>
+        <v>21.79158673209297</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.21255240746887</v>
+        <v>7.130656372075302</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>5.781232762481377</v>
+        <v>5.922242151664383</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>7.39181409710123</v>
+        <v>7.570770323883066</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>22.16952039952433</v>
+        <v>21.45310369682333</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>7.125076834661242</v>
+        <v>7.143791897979107</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7.494375177627879</v>
+        <v>7.574940914029558</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6.887185335594551</v>
+        <v>6.690933312598951</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>22.88867284796212</v>
+        <v>23.97075533373788</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.64816440562725</v>
+        <v>14.03190770240611</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.14386635423491</v>
+        <v>22.39103595133905</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.75977821011887</v>
+        <v>14.59045291115598</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>57.89445864855727</v>
+        <v>61.36660564780109</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18.40500387887894</v>
+        <v>19.67912096688431</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>12.73336928325315</v>
+        <v>12.74382163195249</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>23.63764999896661</v>
+        <v>22.49939203775946</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>40.07610990757558</v>
+        <v>38.94862418816482</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>15.37615888156215</v>
+        <v>15.15282234096139</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14.11251404726245</v>
+        <v>14.25166369393443</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>15.53516734859391</v>
+        <v>15.48697150139745</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>42.6886297017233</v>
+        <v>43.36015993429903</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>13.2492000873966</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30.73360734273441</v>
+        <v>30.73360734273442</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>11.50865534435065</v>
@@ -1225,7 +1225,7 @@
         <v>11.31739236885057</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>28.56456542429636</v>
+        <v>28.56456542429637</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>11.34030820559425</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.339555996745433</v>
+        <v>7.484331732158658</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.076447819620522</v>
+        <v>7.803941849005893</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.177501042869256</v>
+        <v>8.041498514272568</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20.34090200879709</v>
+        <v>19.40236594414066</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.152575264317983</v>
+        <v>7.335000338540827</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.304830894996048</v>
+        <v>6.294247428682277</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.498352284683556</v>
+        <v>7.664330679191797</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>21.45908838073259</v>
+        <v>21.55678493643</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.559482994990722</v>
+        <v>8.317121367467143</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8.337616698343647</v>
+        <v>8.116147590020645</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8.461100811039898</v>
+        <v>8.783545752717847</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>22.69309534498621</v>
+        <v>23.30202344908126</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.8615723979615</v>
+        <v>16.22536865682471</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.14314736702609</v>
+        <v>21.19430063907559</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23.7688226742529</v>
+        <v>22.89627197701775</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>56.96356871497039</v>
+        <v>52.96419663295863</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.83612037863988</v>
+        <v>20.4345825133484</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.44532610537654</v>
+        <v>14.87503559379686</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>19.76407836553838</v>
+        <v>19.66637829764143</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>39.81748671291302</v>
+        <v>39.84861787527522</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>15.91728128895778</v>
+        <v>15.81665256890074</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15.17475771900168</v>
+        <v>14.88833756351386</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17.27832387177443</v>
+        <v>17.82965271724979</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>39.8912210703397</v>
+        <v>41.77373331916247</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>14.11331491207149</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>23.40782715761245</v>
+        <v>23.40782715761246</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>10.59094659494702</v>
+        <v>10.82460619864633</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>10.10917314251316</v>
+        <v>10.58565842810103</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8.631388209729611</v>
+        <v>8.679533543015141</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17.82719279361787</v>
+        <v>18.06352827813208</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>4.25139443230869</v>
+        <v>4.326606093748207</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>8.387671594195758</v>
+        <v>8.198719110456164</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>9.305697123363617</v>
+        <v>9.099906208291547</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>15.58528365491133</v>
+        <v>14.85098818916844</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>8.14278588182987</v>
+        <v>8.05177151560118</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10.33729395917554</v>
+        <v>10.36191715735878</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10.65859570568995</v>
+        <v>10.23842612931068</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>18.22576860700644</v>
+        <v>17.80859117570919</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>37.80466374826403</v>
+        <v>35.00673327443833</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>23.34657986433327</v>
+        <v>24.34405362465721</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23.96587141566313</v>
+        <v>23.98359401821832</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42.42170894304022</v>
+        <v>41.35014118392039</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>11.45575090642118</v>
+        <v>11.12882031642958</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>25.36818785587189</v>
+        <v>25.88257462119814</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>21.13301906009983</v>
+        <v>20.55805447261874</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>30.54302640593589</v>
+        <v>29.82216752155537</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>21.05479950973673</v>
+        <v>21.57975904974847</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>21.70069270379824</v>
+        <v>20.55615666376368</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19.50254713625733</v>
+        <v>19.58391121341759</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>31.34070009766515</v>
+        <v>31.76399253117254</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>12.5331765877731</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>18.10106567072634</v>
+        <v>18.10106567072632</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>5.570350223902949</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.766087395740754</v>
+        <v>2.969937130224446</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.162435623956155</v>
+        <v>3.898065776985585</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.065242598125162</v>
+        <v>6.45616703742334</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>14.12482793244578</v>
+        <v>13.94117778427742</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.14453954933497</v>
+        <v>3.323066258136276</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.008335470376061</v>
+        <v>5.881461372536274</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>7.84523023598821</v>
+        <v>7.49844737340545</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>12.91778333192326</v>
+        <v>13.23329580003975</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.550090224691685</v>
+        <v>3.619010226224341</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6.123026150359808</v>
+        <v>6.01638757537169</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8.262651533925574</v>
+        <v>8.148022252685065</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>15.20830457539061</v>
+        <v>14.82357714891045</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.86998339105673</v>
+        <v>15.47772976266767</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.99269214430348</v>
+        <v>11.14002055326516</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18.84884091309564</v>
+        <v>18.80732874928109</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>33.68778649716731</v>
+        <v>35.67863817181423</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.05213885937158</v>
+        <v>10.70340575819203</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.98381287526726</v>
+        <v>19.07747832109482</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>22.35824707809194</v>
+        <v>21.40494951985741</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>26.57204174369955</v>
+        <v>27.35914983578969</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.475432298762358</v>
+        <v>9.444818379908305</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14.73002653052377</v>
+        <v>14.13193580823896</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17.81047001687543</v>
+        <v>17.96698244517711</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>25.97357677435256</v>
+        <v>26.01919537946822</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>8.157249456185424</v>
+        <v>8.353997677068815</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>8.186827847055328</v>
+        <v>8.103430670649674</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8.051331729574056</v>
+        <v>8.03804591626683</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19.34864180671803</v>
+        <v>19.94192123317367</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>7.377968393914236</v>
+        <v>7.432221500075271</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>8.009355160662645</v>
+        <v>8.243455848196296</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>11.12701346591559</v>
+        <v>11.16807501410467</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>19.65556435526091</v>
+        <v>19.58288469931536</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>8.268219158307581</v>
+        <v>8.204682610333693</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8.591873533928267</v>
+        <v>8.602087026696415</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10.2420242739705</v>
+        <v>10.37801868801665</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>20.64043939449181</v>
+        <v>20.50092713014964</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>14.16649839623425</v>
+        <v>14.65000109523315</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>12.33080600348848</v>
+        <v>12.08761357032321</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12.30005563633645</v>
+        <v>12.3326336462629</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>31.32963223060841</v>
+        <v>31.10210188154314</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>11.55237456156902</v>
+        <v>11.40409678111371</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>12.35355836738523</v>
+        <v>12.24352036450894</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>18.02108357695436</v>
+        <v>18.22388609018391</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>26.24076987297981</v>
+        <v>26.38448133874154</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>11.42842296032479</v>
+        <v>11.61099613529769</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>11.4644837842398</v>
+        <v>11.6119830765132</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>14.56222200730444</v>
+        <v>14.61431997727043</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>26.80940995207775</v>
+        <v>26.65877240562641</v>
       </c>
     </row>
     <row r="28">
